--- a/pega_key_topics.xlsx
+++ b/pega_key_topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben-ElieNtumba\Documents\Pega Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CA8C57-423D-414E-84BE-4121D7851774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D90AEC4-4135-4569-A32D-17EC2F0C4B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0903DAB6-E71D-4EF2-8674-31E96F9F35E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="272">
   <si>
     <t>Phrase</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Business Analyst</t>
   </si>
   <si>
-    <t>Calculated fields</t>
-  </si>
-  <si>
     <t xml:space="preserve">Calculated fields reduce mistakes by avoiding the need for manual computation of values.
 - Calculated fields automatically update whenever input values change and they reduce mistakes by avoiding the need for manual computation of values. </t>
   </si>
@@ -174,37 +171,6 @@
     <t>case life cycle (Steps)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A step is the most granular element of your business process and represents a single action. Each step in a process has a type, based on the functionality that the step provides
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Aptos Display"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Common Step Types:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="Aptos Display"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-Collect information
-Approve/Reject
-Form steps
-</t>
-    </r>
-  </si>
-  <si>
     <t>https://docs-previous.pega.com/case-management/87/step-types</t>
   </si>
   <si>
@@ -229,27 +195,6 @@
     <t>clipboard</t>
   </si>
   <si>
-    <t>complex default values</t>
-  </si>
-  <si>
-    <t>configured</t>
-  </si>
-  <si>
-    <t>convert</t>
-  </si>
-  <si>
-    <t>convert source data</t>
-  </si>
-  <si>
-    <t>copy</t>
-  </si>
-  <si>
-    <t>copy data</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
     <t>customer</t>
   </si>
   <si>
@@ -274,26 +219,9 @@
     <t>data options</t>
   </si>
   <si>
-    <t>Data page</t>
-  </si>
-  <si>
-    <t>A data page links the data to the system of record</t>
-  </si>
-  <si>
     <t>data page</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Pages can be sourced from:
-- Connector 
-- Data transform
-- Report Definition
-- Lookup
-- Activity
-- RDA, RA
-- Aggregate sources
-</t>
-  </si>
-  <si>
     <t>data page refresh</t>
   </si>
   <si>
@@ -330,19 +258,10 @@
     <t>debug case behavior</t>
   </si>
   <si>
-    <t>decision point</t>
-  </si>
-  <si>
     <t>decision table</t>
   </si>
   <si>
-    <t>Returns a single value for the row that meets the conditions, expressions, and value rangers that you define</t>
-  </si>
-  <si>
     <t>decision tree</t>
-  </si>
-  <si>
-    <t>Returns a single value for the branch that meets the if-then logic that you define</t>
   </si>
   <si>
     <t>default property values</t>
@@ -383,9 +302,6 @@
   </si>
   <si>
     <t>integration map</t>
-  </si>
-  <si>
-    <t>The integration map is a diagram of the data objects, cases, and systems of record in the application and where they are sourced</t>
   </si>
   <si>
     <t>Integration Map</t>
@@ -561,9 +477,6 @@
   </si>
   <si>
     <t>refresh strategy</t>
-  </si>
-  <si>
-    <t>Refresh strategies are mechanisms that automatically reload data pages at specified intervals or events. For Editable Data Pages, Pega aims to preserve user input and changes, so refreshing the data automatically could lead to unintentional data loss or conflicts</t>
   </si>
   <si>
     <t>https://support.pega.com/question/editable-data-page-refresh-strategy#:~:text=Refresh%20strategies%20are%20mechanisms%20that,unintentional%20data%20loss%20or%20conflicts</t>
@@ -656,11 +569,6 @@
   </si>
   <si>
     <t>rules</t>
-  </si>
-  <si>
-    <t>Rules are created automatically when users make changes to the application in App Studio.
-- Developers can use  dev studio to combine rules into solutions such as completed views or proceses for usie in app studio 
-- Developers in app studio and eve studio configure the same rules, but dev studio provides more configuration.</t>
   </si>
   <si>
     <t>data page (simulated data source)</t>
@@ -748,9 +656,6 @@
     <t>stages (alternate stage)</t>
   </si>
   <si>
-    <t>You can use an alternate stage to define an out-of-sequence event in the life cycle of a case. By using alternate stages, you can separate expected behavior from exceptions in your application.</t>
-  </si>
-  <si>
     <t>https://docs-previous.pega.com/sites/default/files/help_v73/case%20management/case-designer/stages/cm-adding-alternate-stage-to-case-type-tsk.htm</t>
   </si>
   <si>
@@ -836,9 +741,6 @@
   </si>
   <si>
     <t>cascading approvals - reporting structure</t>
-  </si>
-  <si>
-    <t>The reporting structure model works when approvals always move up the submitter's reporting structure or another defined list.</t>
   </si>
   <si>
     <t>rotuing</t>
@@ -929,6 +831,236 @@
     <t xml:space="preserve">To save a page set the mode as savable, and structure as a page
 You can use savable Data Pages to save a page or page list of data specified in a Data Page back to its system of record (SOR) regardless of whether the SOR is Pega Platform™ or another system like an external database. By using a savable Data Page, you can configure an application to update the SOR in real-time with Case data. The savable Data Page can manage the transaction to ensure that both systems remain synchronized even if an error, such as a network outage, occurs.
 </t>
+  </si>
+  <si>
+    <t>The reporting structure model works when approvals always move up the submitter's reporting structure or another defined list.
+Select the reporting structure configuration with custom levels, then configure when rules to determine the number of levels that align to thresholds.</t>
+  </si>
+  <si>
+    <t>Flow action</t>
+  </si>
+  <si>
+    <t>In pega data will be hold on clipboard page (which is just a memory area )</t>
+  </si>
+  <si>
+    <t>pyWorkPage is a specific page on the clipboard and stores data such as the case creation date or the case ID. Embedded pages within pyWorkPage store sets of case data as defined by a data type. For example, if a case uses a data type named Customer, then Customer is an embedded page within pyWorkPage.</t>
+  </si>
+  <si>
+    <t>Connectors and services</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+Connectors  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">Connectors, pega provides connect </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+Services
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve"> When the app gets a request for data from an external system a service is used to process that inbound request and send the data as response in the format defined. The requesting system parses the response to map the returned data to its data strucutre. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Rules are created automatically when users make changes to the application in App Studio.
+- Rules are the building blocks of a Pega application.
+- Developers can use  dev studio to combine rules into solutions such as completed views or proceses for use in app studio 
+- Developers in app studio and eve studio configure the same rules, but dev studio provides more configuration.</t>
+  </si>
+  <si>
+    <t>Returns a single value for the row that meets the conditions, expressions, and value rangers that you define
+The same result can generally be achieved using a table or a tree</t>
+  </si>
+  <si>
+    <t>Returns a single value for the branch that meets the if-then logic that you define
+A decision tree should be used when many different properties are part of a complex conditional logic
+The same result can generally be achieved using a table or a tree</t>
+  </si>
+  <si>
+    <t>pyWorkCover</t>
+  </si>
+  <si>
+    <t>case - duplicates (case match rule)</t>
+  </si>
+  <si>
+    <t>A case match rule is used to find duplicates in duplicate search cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data page links the data to the system of record
+From the App Studio, a data page can be sourced using a REST connector as a data source.
+Data Pages can be sourced from:
+- Connector 
+- Data transform
+- Report Definition
+- Lookup
+- Activity
+- RDA, RA
+- Aggregate sources
+</t>
+  </si>
+  <si>
+    <t>A list of assignments for a user to complete</t>
+  </si>
+  <si>
+    <t>A cross-functional team that contains a manager and a work queue</t>
+  </si>
+  <si>
+    <t>Operator ID</t>
+  </si>
+  <si>
+    <t>Defines the unique identifier, password, preferences, and personal information for a user that can access the system.</t>
+  </si>
+  <si>
+    <t>Processes - subprocess</t>
+  </si>
+  <si>
+    <t>Flow/decision shapes</t>
+  </si>
+  <si>
+    <t>Refresh strategies are mechanisms that automatically reload data pages at specified intervals or events. For Editable Data Pages, Pega aims to preserve user input and changes, so refreshing the data automatically could lead to unintentional data loss or conflicts
+Valid Options:
+Do NOT refresh when
+Reload if older than
+Once per inteeraction</t>
+  </si>
+  <si>
+    <t>You can use an alternate stage to define an out-of-sequence event in the life cycle of a case. By using alternate stages, you can separate expected behavior from exceptions in your application.
+Alternate stages handle errors and exceptions</t>
+  </si>
+  <si>
+    <t>clipboard (System Pages)</t>
+  </si>
+  <si>
+    <t>clipboard (Work Pages)</t>
+  </si>
+  <si>
+    <t>clipboard (User Pages)</t>
+  </si>
+  <si>
+    <t>clipboard (Data Pages)</t>
+  </si>
+  <si>
+    <t>Contains the current operators information</t>
+  </si>
+  <si>
+    <t>If the thread is a parent case, then pyWorkCover will not exist.
+Is the direct parent case of the current case for the thread.</t>
+  </si>
+  <si>
+    <t>Options are available when configuring a View?
+You can add both new and existing fields to the view during configuration.
+You can reuse saved views when configuring new views.</t>
+  </si>
+  <si>
+    <t>Fields - Calculated fields</t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fields are properties that store and format data in your application and are needed to model data. </t>
+  </si>
+  <si>
+    <t>Visual Data Model</t>
+  </si>
+  <si>
+    <t>Constellation Design System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constellation design system embraces modular design </t>
+  </si>
+  <si>
+    <t>Microjourney</t>
+  </si>
+  <si>
+    <t>Pega Platform refers to a path that leads to a successful resolution as a Microjourney, and supports creating flexible templates for Microjourneys that can adjust to events that take place on the way. In App Studio, you can clearly visualize the main elements of your Microjourney: the people that are involved in the process, the channels that provide communication with your application, and the data that is required to meet the goal.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A step is the most granular element of your business process and represents a single action. Each step in a process has a type, based on the functionality that the step provides
+Adding instructions to a Step describes to users the action to take in a step
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Common Step Types:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+Collect information
+Approve/Reject
+Form steps
+</t>
+    </r>
+  </si>
+  <si>
+    <t>You can view and modify the data model from the visual data model</t>
+  </si>
+  <si>
+    <t>The integration map is a diagram of the data objects, cases, and systems of record in the application and where they are sourced.
+The integration map is a visualization tool that shows the relationships between data objects, Data Pages, and systems of record.</t>
+  </si>
+  <si>
+    <t>stages (Resolution stage)</t>
+  </si>
+  <si>
+    <t>stages (Create stage)</t>
+  </si>
+  <si>
+    <t>Contains Processes and Steps for users to enter initial data</t>
+  </si>
+  <si>
+    <t>Defines case behavior at the end of the Case Life Cycle</t>
   </si>
 </sst>
 </file>
@@ -1134,13 +1266,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>1062037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1527,11 +1659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6B7299-5A2E-4715-BDB9-58DD580839CD}">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1562,10 +1694,10 @@
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="228.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1586,1192 +1718,1273 @@
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>239</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>260</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="18" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>229</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="4" customFormat="1" ht="207" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="207" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>265</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" ht="187.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>245</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" s="4" customFormat="1" ht="290.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" s="4" customFormat="1" ht="148.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" s="4" customFormat="1" ht="187.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" s="4" customFormat="1" ht="235.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="B48" s="3" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>182</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>68</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>221</v>
       </c>
       <c r="B53" s="3"/>
     </row>
     <row r="54" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="55" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="4" customFormat="1" ht="152.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3"/>
     </row>
     <row r="60" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="4" customFormat="1" ht="152.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B61" s="3"/>
     </row>
     <row r="62" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>235</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="65" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B65" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="66" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B69" s="3"/>
     </row>
     <row r="70" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>233</v>
+        <v>71</v>
       </c>
       <c r="B70" s="3"/>
     </row>
     <row r="71" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>89</v>
+        <v>213</v>
       </c>
       <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="78" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="80" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B81" s="3"/>
     </row>
     <row r="82" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B82" s="3"/>
     </row>
     <row r="83" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B83" s="3"/>
     </row>
     <row r="84" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B84" s="3"/>
     </row>
     <row r="85" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B85" s="3"/>
     </row>
     <row r="86" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B88" s="3"/>
     </row>
     <row r="89" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B91" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="92" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B92" s="3"/>
     </row>
     <row r="93" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B93" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="94" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B94" s="3"/>
     </row>
     <row r="95" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B95" s="3"/>
     </row>
     <row r="96" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B96" s="3"/>
     </row>
     <row r="97" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B97" s="3"/>
     </row>
     <row r="98" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B98" s="3"/>
     </row>
     <row r="99" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B100" s="3"/>
     </row>
     <row r="101" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>129</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B107" s="3"/>
     </row>
     <row r="108" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B108" s="3"/>
     </row>
     <row r="109" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B109" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="110" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="B115" s="3"/>
     </row>
-    <row r="116" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B117" s="3"/>
     </row>
-    <row r="118" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B120" s="3"/>
     </row>
-    <row r="121" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B121" s="3"/>
     </row>
-    <row r="122" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B124" s="3"/>
     </row>
-    <row r="125" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" s="4" customFormat="1" ht="189" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B127" s="3"/>
     </row>
-    <row r="128" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>158</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B128" s="3"/>
     </row>
     <row r="129" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="4" customFormat="1" ht="170.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>161</v>
+        <v>248</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:3" s="4" customFormat="1" ht="189" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>167</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B133" s="3"/>
     </row>
     <row r="134" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>248</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B142" s="3"/>
     </row>
     <row r="143" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>188</v>
+        <v>160</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B144" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="145" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B145" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="146" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>192</v>
+        <v>166</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B147" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="148" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B148" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="149" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B149" s="3"/>
     </row>
     <row r="150" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B150" s="3"/>
     </row>
     <row r="151" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>202</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B152" s="3"/>
     </row>
     <row r="153" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>205</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B153" s="3"/>
     </row>
     <row r="154" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="B154" s="3"/>
     </row>
     <row r="155" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="B155" s="3"/>
     </row>
     <row r="156" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B156" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="157" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B157" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="158" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B158" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="159" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B159" s="3"/>
+        <v>268</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C159" s="5"/>
     </row>
     <row r="160" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B160" s="3"/>
+        <v>269</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C160" s="5"/>
     </row>
     <row r="161" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B161" s="3"/>
     </row>
     <row r="162" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="B162" s="3"/>
     </row>
     <row r="163" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B163" s="3"/>
     </row>
     <row r="164" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="B164" s="3"/>
     </row>
     <row r="165" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B165" s="3"/>
     </row>
     <row r="166" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B166" s="3"/>
     </row>
     <row r="167" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B167" s="3"/>
     </row>
     <row r="168" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B168" s="3"/>
     </row>
-    <row r="169" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="B169" s="3"/>
     </row>
-    <row r="170" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B170" s="3"/>
     </row>
-    <row r="171" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="B172" s="3"/>
     </row>
-    <row r="173" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B173" s="3"/>
-    </row>
-    <row r="174" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="B174" s="3"/>
     </row>
-    <row r="175" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="2"/>
-      <c r="B175" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="19.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175" s="3"/>
+    </row>
+    <row r="176" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B176" s="3"/>
+    </row>
+    <row r="177" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B177" s="3"/>
+    </row>
+    <row r="178" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B182" s="3"/>
+    </row>
+    <row r="183" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2"/>
+      <c r="B183" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="19.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C176">
-    <sortCondition ref="A1:A176"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C191">
+    <sortCondition ref="A1:A191"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{4595682C-5C5C-4D93-8CB1-04859AC2F759}"/>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{4595682C-5C5C-4D93-8CB1-04859AC2F759}"/>
     <hyperlink ref="C22" r:id="rId2" location="p-4c5385a1-9f78-4def-bf70-30d41e0147d2" xr:uid="{89CF65B4-63A7-4069-8C5C-F47CDEFEB836}"/>
-    <hyperlink ref="C138" r:id="rId3" xr:uid="{4DDCA8CF-0A58-4099-807C-5A14A7445BC1}"/>
-    <hyperlink ref="C141" r:id="rId4" xr:uid="{5405E2D9-D339-42DA-845B-3D379492FAF8}"/>
-    <hyperlink ref="C151" r:id="rId5" xr:uid="{6508C064-495C-4535-A669-A12744063B21}"/>
-    <hyperlink ref="C52" r:id="rId6" location=":~:text=the%20following%20image.-,Data%20relationships%20with%20multiple%20records,a%20single%20set%20of%20values." xr:uid="{091FD569-66A4-4A52-B5B1-9CBC4B16AAC9}"/>
-    <hyperlink ref="C126" r:id="rId7" location=":~:text=Refresh%20strategies%20are%20mechanisms%20that,unintentional%20data%20loss%20or%20conflicts" xr:uid="{02A70961-F403-4FD4-AA41-EB8F4D3D4162}"/>
-    <hyperlink ref="C88" r:id="rId8" xr:uid="{10E34BA9-9AD8-425D-9C93-53CA7B6A507B}"/>
-    <hyperlink ref="C26" r:id="rId9" xr:uid="{A0DE563A-8E63-4D6B-9511-FCB79244E445}"/>
-    <hyperlink ref="C153" r:id="rId10" xr:uid="{3C3B1EAD-4F3A-4B33-BF69-17B2F5289103}"/>
-    <hyperlink ref="C152" r:id="rId11" xr:uid="{C3E980BE-6B6E-40A2-99CA-D73C75EFA3C4}"/>
-    <hyperlink ref="C27" r:id="rId12" xr:uid="{493C2FC3-9F34-4836-B344-8AEF8305EACC}"/>
+    <hyperlink ref="C143" r:id="rId3" xr:uid="{4DDCA8CF-0A58-4099-807C-5A14A7445BC1}"/>
+    <hyperlink ref="C146" r:id="rId4" xr:uid="{5405E2D9-D339-42DA-845B-3D379492FAF8}"/>
+    <hyperlink ref="C156" r:id="rId5" xr:uid="{6508C064-495C-4535-A669-A12744063B21}"/>
+    <hyperlink ref="C56" r:id="rId6" location=":~:text=the%20following%20image.-,Data%20relationships%20with%20multiple%20records,a%20single%20set%20of%20values." xr:uid="{091FD569-66A4-4A52-B5B1-9CBC4B16AAC9}"/>
+    <hyperlink ref="C130" r:id="rId7" location=":~:text=Refresh%20strategies%20are%20mechanisms%20that,unintentional%20data%20loss%20or%20conflicts" xr:uid="{02A70961-F403-4FD4-AA41-EB8F4D3D4162}"/>
+    <hyperlink ref="C91" r:id="rId8" xr:uid="{10E34BA9-9AD8-425D-9C93-53CA7B6A507B}"/>
+    <hyperlink ref="C27" r:id="rId9" xr:uid="{A0DE563A-8E63-4D6B-9511-FCB79244E445}"/>
+    <hyperlink ref="C158" r:id="rId10" xr:uid="{3C3B1EAD-4F3A-4B33-BF69-17B2F5289103}"/>
+    <hyperlink ref="C157" r:id="rId11" xr:uid="{C3E980BE-6B6E-40A2-99CA-D73C75EFA3C4}"/>
+    <hyperlink ref="C28" r:id="rId12" xr:uid="{493C2FC3-9F34-4836-B344-8AEF8305EACC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>

--- a/pega_key_topics.xlsx
+++ b/pega_key_topics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben-ElieNtumba\Documents\Pega Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D90AEC4-4135-4569-A32D-17EC2F0C4B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC24B2A-4BA1-4AAF-B6FB-428A6539ACC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0903DAB6-E71D-4EF2-8674-31E96F9F35E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="279">
   <si>
     <t>Phrase</t>
   </si>
@@ -54,16 +54,6 @@
   </si>
   <si>
     <t>activities</t>
-  </si>
-  <si>
-    <t>You create activities in Dev Studio with steps that run in the order you specify
-Activities might be appropriate for the following processes: 
-Background processing
-Complex loops
-Declare OnChange
-Parallel processing
-Recurring scheduled events
-Services</t>
   </si>
   <si>
     <t>agile workbench</t>
@@ -127,13 +117,6 @@
     <t>case</t>
   </si>
   <si>
-    <t>A case is a specific transaction instance./ An instance of the business transaction at runtime
-- A case is unique
-- A case is created, processe, and resloed. 
-- A case os a specific business transaction
-- A case is a collection of  data</t>
-  </si>
-  <si>
     <t>https://academy.pega.com/topic/case-life-cycle/v2#p-4c5385a1-9f78-4def-bf70-30d41e0147d2</t>
   </si>
   <si>
@@ -302,9 +285,6 @@
   </si>
   <si>
     <t>integration map</t>
-  </si>
-  <si>
-    <t>Integration Map</t>
   </si>
   <si>
     <t>invoked</t>
@@ -828,11 +808,6 @@
     <t>An access role in Dev Studio categorizes users according to their job functions. You may need to create a new role if an additional combination of channel interface and permissions is necessary.</t>
   </si>
   <si>
-    <t xml:space="preserve">To save a page set the mode as savable, and structure as a page
-You can use savable Data Pages to save a page or page list of data specified in a Data Page back to its system of record (SOR) regardless of whether the SOR is Pega Platform™ or another system like an external database. By using a savable Data Page, you can configure an application to update the SOR in real-time with Case data. The savable Data Page can manage the transaction to ensure that both systems remain synchronized even if an error, such as a network outage, occurs.
-</t>
-  </si>
-  <si>
     <t>The reporting structure model works when approvals always move up the submitter's reporting structure or another defined list.
 Select the reporting structure configuration with custom levels, then configure when rules to determine the number of levels that align to thresholds.</t>
   </si>
@@ -841,9 +816,6 @@
   </si>
   <si>
     <t>In pega data will be hold on clipboard page (which is just a memory area )</t>
-  </si>
-  <si>
-    <t>pyWorkPage is a specific page on the clipboard and stores data such as the case creation date or the case ID. Embedded pages within pyWorkPage store sets of case data as defined by a data type. For example, if a case uses a data type named Customer, then Customer is an embedded page within pyWorkPage.</t>
   </si>
   <si>
     <t>Connectors and services</t>
@@ -938,9 +910,6 @@
     <t>A list of assignments for a user to complete</t>
   </si>
   <si>
-    <t>A cross-functional team that contains a manager and a work queue</t>
-  </si>
-  <si>
     <t>Operator ID</t>
   </si>
   <si>
@@ -976,13 +945,6 @@
     <t>clipboard (Data Pages)</t>
   </si>
   <si>
-    <t>Contains the current operators information</t>
-  </si>
-  <si>
-    <t>If the thread is a parent case, then pyWorkCover will not exist.
-Is the direct parent case of the current case for the thread.</t>
-  </si>
-  <si>
     <t>Options are available when configuring a View?
 You can add both new and existing fields to the view during configuration.
 You can reuse saved views when configuring new views.</t>
@@ -997,13 +959,7 @@
     <t xml:space="preserve">Fields are properties that store and format data in your application and are needed to model data. </t>
   </si>
   <si>
-    <t>Visual Data Model</t>
-  </si>
-  <si>
     <t>Constellation Design System</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constellation design system embraces modular design </t>
   </si>
   <si>
     <t>Microjourney</t>
@@ -1044,9 +1000,6 @@
     </r>
   </si>
   <si>
-    <t>You can view and modify the data model from the visual data model</t>
-  </si>
-  <si>
     <t>The integration map is a diagram of the data objects, cases, and systems of record in the application and where they are sourced.
 The integration map is a visualization tool that shows the relationships between data objects, Data Pages, and systems of record.</t>
   </si>
@@ -1061,6 +1014,152 @@
   </si>
   <si>
     <t>Defines case behavior at the end of the Case Life Cycle</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Data model</t>
+  </si>
+  <si>
+    <t>You can view and modify the data model from the visual data model. Helps you understand the relationships among case types, data types, data objects, and fields in your application by using the data model visualisation. The visual data model provides a holistic overview of the data in your application. The left pane displays case types and data objects in your application. The main area shows a diagram of the case types and data objects and how they are connected (A case icon marks case types).</t>
+  </si>
+  <si>
+    <t>Data - model (Visual Data Model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculation Networks </t>
+  </si>
+  <si>
+    <t>Update all relevant fields whenever a value changes
+Identify the relationship between fields.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To save a page set the mode as savable, and structure as a page
+You can use savable Data Pages to save a page or page list of data specified in a Data Page back to its system of record (SOR) regardless of whether the SOR is Pega Platform™ or another system like an external database. By using a savable Data Page, you can configure an application to update the SOR in real-time with Case data. The savable Data Page can manage the transaction to ensure that both systems remain synchronized even if an error, such as a network outage, occurs.
+Only data pages with a page structure can use the Database save option
+You cannot use data pages with a page list structure as saveable data pages
+You can configure a data page with multiple savce options based on conditions
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyWorkPage is a specific page on the clipboard and stores data such as the case creation date or the case ID. Embedded pages within pyWorkPage store sets of case data as defined by a data type. For example, if a case uses a data type named Customer, then Customer is an embedded page within pyWorkPage.
+The data and time a user created the onboaraing page describe the list the type of information that is stored, </t>
+  </si>
+  <si>
+    <t>A case isnt a template rather han an instance. 
+- A case is unique
+- A case is created, processe, and resloed. 
+- A case os a specific business transaction
+- A case is a collection of  data</t>
+  </si>
+  <si>
+    <t>Page and Page list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Page stores the values of a group of related properties and a Page list stores a list of Pages. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A data model visually organises the data in an application and displays the relationships among various data elements in a way that is easy to understand.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">when you read mode, think type.
+A property can be of a single value </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">. Examples of single value types are integer, a string (or, text), a date, a boolean, a decimal, etc. For example, I create a property named FirstName and I set the type to Text. I can store a single textual value in that property.
+A property can be of a page </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>type (mode)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">. Pages are just a collection of other properties, regardless of the type. For example, I create a property named Customer and I set the type to Single Page. The Customer page is a single page - because it represents a single customer. I would then define the other properties that make up the Customer. Those other properties could be single value properties such as FirstName and LastName, but I could also define another page type property named Address. The Address page then contains other properties, and so on.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>https://support.pega.com/question/value-mode-properties-and-page-mode-properties</t>
+  </si>
+  <si>
+    <t>A cross-functional team that contains a manager and a work queue.
+Work groups organise users coming from different business units and working as a team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contains the current operators information. This can include things like the Operators ID. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You create activities in Dev Studio with steps that run in the order you specify
+Activities cannot be created in App Studio, only Dev Studio.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>Developers should us aternate rule types, instead of activities whjere possible
+• An activity rule is used to automeate the processig of work
+• An activity can be called from Utility shape
+Activities might be appropriate for the following processes: 
+Background processing
+Complex loops
+Declare OnChange
+Parallel processing
+Recurring scheduled events
+Services</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1266,13 +1365,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>1062037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1659,11 +1758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6B7299-5A2E-4715-BDB9-58DD580839CD}">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1694,10 +1793,10 @@
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="228.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1705,1289 +1804,1321 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>259</v>
+        <v>274</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>250</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>210</v>
+        <v>265</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" ht="207" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="4" customFormat="1" ht="207" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>224</v>
+        <v>255</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>225</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>250</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>254</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="37" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="38" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" ht="290.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C39" s="5"/>
+        <v>277</v>
+      </c>
     </row>
     <row r="40" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
       <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:3" s="4" customFormat="1" ht="187.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" s="4" customFormat="1" ht="290.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="3"/>
+        <v>228</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" s="4" customFormat="1" ht="187.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:3" s="4" customFormat="1" ht="235.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>241</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3"/>
     </row>
     <row r="50" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>220</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3"/>
     </row>
     <row r="52" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="4" customFormat="1" ht="235.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B53" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="54" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>56</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="B57" s="3"/>
     </row>
     <row r="58" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="60" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" ht="152.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="62" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B63" s="3"/>
     </row>
     <row r="64" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>236</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="4" customFormat="1" ht="152.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B66" s="3"/>
     </row>
     <row r="67" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B67" s="3"/>
     </row>
     <row r="68" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B68" s="3"/>
     </row>
     <row r="69" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="70" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="71" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B71" s="3"/>
     </row>
     <row r="72" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>213</v>
+        <v>66</v>
       </c>
       <c r="B72" s="3"/>
     </row>
     <row r="73" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B73" s="3"/>
     </row>
     <row r="74" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="B75" s="3"/>
     </row>
     <row r="76" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B76" s="3"/>
     </row>
     <row r="77" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B77" s="3"/>
     </row>
     <row r="78" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B78" s="3"/>
     </row>
     <row r="79" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>267</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B79" s="3"/>
     </row>
     <row r="80" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="B80" s="3"/>
     </row>
     <row r="81" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="82" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="83" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B83" s="3"/>
     </row>
     <row r="84" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="85" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B85" s="3"/>
     </row>
     <row r="86" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B86" s="3"/>
     </row>
     <row r="87" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B87" s="3"/>
     </row>
     <row r="88" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B88" s="3"/>
     </row>
     <row r="89" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B89" s="3"/>
     </row>
     <row r="90" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B90" s="3"/>
     </row>
     <row r="91" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B91" s="3"/>
     </row>
     <row r="92" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B92" s="3"/>
     </row>
     <row r="93" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B93" s="3"/>
     </row>
     <row r="94" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B94" s="3"/>
     </row>
     <row r="95" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="96" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B96" s="3"/>
     </row>
     <row r="97" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="98" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B98" s="3"/>
     </row>
     <row r="99" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B99" s="3"/>
     </row>
     <row r="100" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B100" s="3"/>
     </row>
     <row r="101" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B101" s="3"/>
     </row>
     <row r="102" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B102" s="3"/>
     </row>
     <row r="103" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B103" s="3"/>
     </row>
     <row r="104" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B104" s="3"/>
     </row>
     <row r="105" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B105" s="3"/>
     </row>
     <row r="106" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B106" s="3"/>
     </row>
     <row r="107" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B107" s="3"/>
     </row>
     <row r="108" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B108" s="3"/>
     </row>
     <row r="109" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B110" s="3"/>
     </row>
     <row r="111" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B111" s="3"/>
     </row>
     <row r="112" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B112" s="3"/>
     </row>
     <row r="113" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="B114" s="3"/>
     </row>
     <row r="115" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B115" s="3"/>
     </row>
     <row r="116" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="B116" s="3"/>
     </row>
     <row r="117" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="118" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B118" s="3"/>
     </row>
     <row r="119" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B119" s="3"/>
     </row>
     <row r="120" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
       <c r="B120" s="3"/>
     </row>
     <row r="121" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B121" s="3"/>
     </row>
     <row r="122" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>232</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3"/>
     </row>
     <row r="125" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3"/>
     </row>
     <row r="126" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="B126" s="3"/>
     </row>
     <row r="127" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B127" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="128" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B128" s="3"/>
     </row>
     <row r="129" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" s="4" customFormat="1" ht="170.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>136</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B130" s="3"/>
     </row>
     <row r="131" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B131" s="3"/>
     </row>
-    <row r="132" spans="1:3" s="4" customFormat="1" ht="189" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B132" s="3"/>
     </row>
     <row r="133" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="4" customFormat="1" ht="170.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>144</v>
+        <v>242</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:3" s="4" customFormat="1" ht="189" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B137" s="3"/>
     </row>
     <row r="138" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B142" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="143" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>235</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>167</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B146" s="3"/>
     </row>
     <row r="147" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>228</v>
+        <v>157</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
     </row>
     <row r="149" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B149" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="150" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B150" s="3"/>
-    </row>
-    <row r="151" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" s="4" customFormat="1" ht="243.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>174</v>
+        <v>267</v>
       </c>
     </row>
     <row r="152" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B152" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="153" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B153" s="3"/>
     </row>
     <row r="154" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B154" s="3"/>
     </row>
     <row r="155" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B155" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="156" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B156" s="3"/>
     </row>
     <row r="157" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>183</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B157" s="3"/>
     </row>
     <row r="158" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B158" s="3"/>
     </row>
     <row r="159" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C159" s="5"/>
-    </row>
-    <row r="160" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160" spans="1:3" s="4" customFormat="1" ht="164.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C160" s="5"/>
-    </row>
-    <row r="161" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B165" s="3"/>
+    </row>
+    <row r="166" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B166" s="3"/>
+    </row>
+    <row r="167" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B167" s="3"/>
+    </row>
+    <row r="168" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B161" s="3"/>
-    </row>
-    <row r="162" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
+      <c r="B168" s="3"/>
+    </row>
+    <row r="169" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B163" s="3"/>
-    </row>
-    <row r="164" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B164" s="3"/>
-    </row>
-    <row r="165" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
+      <c r="B171" s="3"/>
+    </row>
+    <row r="172" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B165" s="3"/>
-    </row>
-    <row r="166" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
+      <c r="B172" s="3"/>
+    </row>
+    <row r="173" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
+      <c r="B173" s="3"/>
+    </row>
+    <row r="174" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B167" s="3"/>
-    </row>
-    <row r="168" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
+      <c r="B174" s="3"/>
+    </row>
+    <row r="175" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B168" s="3"/>
-    </row>
-    <row r="169" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
+      <c r="B175" s="3"/>
+    </row>
+    <row r="176" spans="1:3" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B169" s="3"/>
-    </row>
-    <row r="170" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
+      <c r="B176" s="3"/>
+    </row>
+    <row r="177" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B170" s="3"/>
-    </row>
-    <row r="171" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B171" s="3"/>
-    </row>
-    <row r="172" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
+      <c r="B179" s="3"/>
+    </row>
+    <row r="180" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B172" s="3"/>
-    </row>
-    <row r="173" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B174" s="3"/>
-    </row>
-    <row r="175" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B175" s="3"/>
-    </row>
-    <row r="176" spans="1:2" s="4" customFormat="1" ht="120" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B176" s="3"/>
-    </row>
-    <row r="177" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B177" s="3"/>
-    </row>
-    <row r="178" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="B180" s="3"/>
     </row>
     <row r="181" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>242</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B181" s="3"/>
     </row>
     <row r="182" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B182" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="183" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="2"/>
+      <c r="A183" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="B183" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="19.5" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187" spans="1:2" s="4" customFormat="1" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2"/>
+      <c r="B187" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="19.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C191">
-    <sortCondition ref="A1:A191"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C195">
+    <sortCondition ref="A1:A195"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1" xr:uid="{4595682C-5C5C-4D93-8CB1-04859AC2F759}"/>
-    <hyperlink ref="C22" r:id="rId2" location="p-4c5385a1-9f78-4def-bf70-30d41e0147d2" xr:uid="{89CF65B4-63A7-4069-8C5C-F47CDEFEB836}"/>
-    <hyperlink ref="C143" r:id="rId3" xr:uid="{4DDCA8CF-0A58-4099-807C-5A14A7445BC1}"/>
-    <hyperlink ref="C146" r:id="rId4" xr:uid="{5405E2D9-D339-42DA-845B-3D379492FAF8}"/>
-    <hyperlink ref="C156" r:id="rId5" xr:uid="{6508C064-495C-4535-A669-A12744063B21}"/>
-    <hyperlink ref="C56" r:id="rId6" location=":~:text=the%20following%20image.-,Data%20relationships%20with%20multiple%20records,a%20single%20set%20of%20values." xr:uid="{091FD569-66A4-4A52-B5B1-9CBC4B16AAC9}"/>
-    <hyperlink ref="C130" r:id="rId7" location=":~:text=Refresh%20strategies%20are%20mechanisms%20that,unintentional%20data%20loss%20or%20conflicts" xr:uid="{02A70961-F403-4FD4-AA41-EB8F4D3D4162}"/>
-    <hyperlink ref="C91" r:id="rId8" xr:uid="{10E34BA9-9AD8-425D-9C93-53CA7B6A507B}"/>
-    <hyperlink ref="C27" r:id="rId9" xr:uid="{A0DE563A-8E63-4D6B-9511-FCB79244E445}"/>
-    <hyperlink ref="C158" r:id="rId10" xr:uid="{3C3B1EAD-4F3A-4B33-BF69-17B2F5289103}"/>
-    <hyperlink ref="C157" r:id="rId11" xr:uid="{C3E980BE-6B6E-40A2-99CA-D73C75EFA3C4}"/>
-    <hyperlink ref="C28" r:id="rId12" xr:uid="{493C2FC3-9F34-4836-B344-8AEF8305EACC}"/>
+    <hyperlink ref="C26" r:id="rId2" location="p-4c5385a1-9f78-4def-bf70-30d41e0147d2" xr:uid="{89CF65B4-63A7-4069-8C5C-F47CDEFEB836}"/>
+    <hyperlink ref="C147" r:id="rId3" xr:uid="{4DDCA8CF-0A58-4099-807C-5A14A7445BC1}"/>
+    <hyperlink ref="C150" r:id="rId4" xr:uid="{5405E2D9-D339-42DA-845B-3D379492FAF8}"/>
+    <hyperlink ref="C160" r:id="rId5" xr:uid="{6508C064-495C-4535-A669-A12744063B21}"/>
+    <hyperlink ref="C61" r:id="rId6" location=":~:text=the%20following%20image.-,Data%20relationships%20with%20multiple%20records,a%20single%20set%20of%20values." xr:uid="{091FD569-66A4-4A52-B5B1-9CBC4B16AAC9}"/>
+    <hyperlink ref="C134" r:id="rId7" location=":~:text=Refresh%20strategies%20are%20mechanisms%20that,unintentional%20data%20loss%20or%20conflicts" xr:uid="{02A70961-F403-4FD4-AA41-EB8F4D3D4162}"/>
+    <hyperlink ref="C95" r:id="rId8" xr:uid="{10E34BA9-9AD8-425D-9C93-53CA7B6A507B}"/>
+    <hyperlink ref="C31" r:id="rId9" xr:uid="{A0DE563A-8E63-4D6B-9511-FCB79244E445}"/>
+    <hyperlink ref="C162" r:id="rId10" xr:uid="{3C3B1EAD-4F3A-4B33-BF69-17B2F5289103}"/>
+    <hyperlink ref="C161" r:id="rId11" xr:uid="{C3E980BE-6B6E-40A2-99CA-D73C75EFA3C4}"/>
+    <hyperlink ref="C32" r:id="rId12" xr:uid="{493C2FC3-9F34-4836-B344-8AEF8305EACC}"/>
+    <hyperlink ref="C17" r:id="rId13" xr:uid="{EFC2AED2-CBC2-4E0A-81B2-D1966A5661E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
-  <drawing r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>